--- a/!EXCEL/№2099 от 24.12.2024 ООО «Управляющая компания «ВЕСТА» от ООО ТД АНМАКС.xlsx
+++ b/!EXCEL/№2099 от 24.12.2024 ООО «Управляющая компания «ВЕСТА» от ООО ТД АНМАКС.xlsx
@@ -237,12 +237,12 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF404040"/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -258,28 +258,28 @@
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
-      <u val="none"/>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
       <u val="single"/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF404040"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <b val="1"/>
@@ -391,7 +391,46 @@
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="49" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -405,45 +444,6 @@
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="49" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -502,10 +502,10 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2724150" cy="4248150"/>
+    <xdr:ext cx="3257550" cy="3657600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Рисунок 1" descr=""/>
+        <xdr:cNvPr id="1" name="Рисунок 3" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -878,141 +878,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="13"/>
+      <c r="A1" s="26"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="14"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="1"/>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="16" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="16"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="13"/>
+      <c r="A2" s="26"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="14"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="1"/>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="17" t="s">
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="17"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:19" customHeight="1" ht="16.5">
       <c r="A3" s="4"/>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="19"/>
+      <c r="M3" s="23"/>
     </row>
     <row r="5" spans="1:19" customHeight="1" ht="26.25">
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:19" customHeight="1" ht="26.25">
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
     </row>
     <row r="7" spans="1:19">
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:19" customHeight="1" ht="26.25">
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:19" customHeight="1" ht="19.5">
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:19" customHeight="1" ht="32.25">
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:19" customHeight="1" ht="26.25">
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="24" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:19" customHeight="1" ht="6.75">
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:19">
@@ -1026,52 +1026,52 @@
       <c r="N13" s="9"/>
     </row>
     <row r="15" spans="1:19" customHeight="1" ht="15.75">
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:19" customHeight="1" ht="15">
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
       <c r="N16" s="11"/>
     </row>
     <row r="18" spans="1:19" customHeight="1" ht="32.25">
       <c r="C18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30" t="s">
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="30"/>
+      <c r="J18" s="17"/>
       <c r="K18" s="12" t="s">
         <v>21</v>
       </c>
@@ -1222,30 +1222,30 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="G6:N6"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:M11"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:M12"/>
     <mergeCell ref="C15:M15"/>
     <mergeCell ref="C16:M16"/>
     <mergeCell ref="D18:H18"/>
     <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="G6:N6"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:M2"/>
     <mergeCell ref="D19:H19"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="D20:H20"/>
